--- a/mvc정리.xlsx
+++ b/mvc정리.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10830" windowHeight="11790" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -14,66 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>/login/loginProcess.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginProcessController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/jsp/login/login.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardWriteController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/jsp/board/detail.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/jsp/board/write.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardDetailController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JSP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성공/실패에 따른 uri 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/login/login.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardWriteFormController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/jsp/board/writeForm.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새글 등록(폼)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/list.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/write.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/board/detail.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoardListController</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/jsp/board/list.jsp</x:t>
+  </x:si>
   <x:si>
     <x:t>/board/writeForm.do</x:t>
   </x:si>
   <x:si>
-    <x:t>전체 게시글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JSP</x:t>
+    <x:t>가상 URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세게시글조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새글 등록</x:t>
   </x:si>
   <x:si>
     <x:t>컨트롤러</x:t>
   </x:si>
   <x:si>
-    <x:t>가상 URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardWriteFormController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/board/list.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardListController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새글 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jsp/board/list.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jsp/board/write.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jsp/board/writeForm.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/board/write.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새글 등록(폼)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardWriteController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/jsp/board/detail.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BoardDetailController</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세게시글조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/board/detail.do</x:t>
+    <x:t>로그인(폼)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LoginController</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -242,6 +266,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -324,6 +349,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -358,6 +384,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -402,6 +429,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -445,6 +473,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -529,6 +558,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -549,6 +579,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -579,6 +610,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -886,10 +918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:D5"/>
+  <x:dimension ref="A1:D7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D6" activeCellId="0" sqref="D6:D6"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -897,81 +929,109 @@
     <x:col min="1" max="1" width="16" style="2" customWidth="1"/>
     <x:col min="2" max="2" width="19.4453125" customWidth="1"/>
     <x:col min="3" max="3" width="22" customWidth="1"/>
-    <x:col min="4" max="4" width="19" customWidth="1"/>
+    <x:col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" s="1" customFormat="1">
       <x:c r="A1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B5" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="C5" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>